--- a/PLSstatic/PLSstatic_predicted_factors_matrix_12.xlsx
+++ b/PLSstatic/PLSstatic_predicted_factors_matrix_12.xlsx
@@ -443,98 +443,98 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.420949295932615</v>
+        <v>-1.420949295932613</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.186564979221329</v>
+        <v>-4.257060648907316</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.504642410857941</v>
+        <v>-0.5046424108579408</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.653405064656907</v>
+        <v>1.188682204638741</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.006628774259226</v>
+        <v>1.006628774259225</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8686058429703029</v>
+        <v>-3.096770889681989</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.6790302894739081</v>
+        <v>0.6790302894739064</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6308524983688365</v>
+        <v>0.4022692427991631</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.81558747717764</v>
+        <v>-0.8155874771776408</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.7501429801676768</v>
+        <v>-1.881942139627402</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.0612483592114806</v>
+        <v>-0.0612483592114824</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02417219446985045</v>
+        <v>-0.697440638001632</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.8042195698031117</v>
+        <v>0.80421956980311</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7276278237568087</v>
+        <v>0.7631689658383464</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.3114309331481624</v>
+        <v>0.3114309331481631</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3309362983612337</v>
+        <v>1.02485014504204</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.1775653614068748</v>
+        <v>-0.1775653614068756</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.05596091805969743</v>
+        <v>-2.526891038649877</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.3461737102865864</v>
+        <v>0.3461737102865866</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2419049115575252</v>
+        <v>-0.587349174488855</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.524412709298929</v>
+        <v>0.5244127092989271</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3303594041408937</v>
+        <v>0.6304501353211588</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.4048370064451569</v>
+        <v>0.4048370064451582</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3871222210973375</v>
+        <v>0.06255283358463837</v>
       </c>
     </row>
   </sheetData>
